--- a/Income/HP_inc.xlsx
+++ b/Income/HP_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>1068179000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1405647000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>1773927000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>2214710200.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>2585320200.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>2672549200.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>2798490200.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>2846265000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>2807163000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>2663779000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>2487268000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>2322747100.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>2172439100.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>2000238100.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>1804741100.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>1604145100.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>1472067100.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>1504975100.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>1624232100.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>1846323900.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>2141282900.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>2588761900.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>3161701900.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>3589201200.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>3879843200.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>3887603200.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>3715968200.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>3599204900.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>3487314900.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>3432193900.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>3387613900.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>3352525100.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>3332113100.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>3263786100.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>3151802100.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>3023106000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>2847416000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>2681840000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>2543894000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>2402100000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>1123029000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>1439880000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>1660550000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>1823326100.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>1954546100.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>1849101100.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>1808586100.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>1825711000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>1825694000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>1768394000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>1652610000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>1569359000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>1462311000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>1374721000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>1249317000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>1096375000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>945058000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>869840000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>898805000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>1010674900.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>1175168900.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>1420656900.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>1703475900.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>1914463000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>2079062000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>2092130000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>2006715000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>1942624000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>1878375000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>1859945000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>1852768000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>1826932900.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>1839877900.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>1826348900.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>1750509900.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>1700106100.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>1601757100.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>1493588100.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>1432602100.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>1364869000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>-54850000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>-34233000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>113377000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>391384100.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>630774100.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>823448100.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>989904100.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>1020554000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>981469000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>895385000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>834658000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>753388100.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>710128100.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>625517100.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>555424100.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>507770100.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>527009100.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>635135100.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>725427100.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>835649000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>966114000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>1168105000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>1458226000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>1674738200.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>1800781200.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>1795473200.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>1709253200.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>1656580900.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>1608939900.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>1572248900.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>1534845900.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>1525592200.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>1492235200.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>1437437200.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>1401292200.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>1322999900.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>1245658900.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>1188251900.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>1111291900.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>1037231000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>19470000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>20350000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>21645000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>22850000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>26278000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>27326000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>27467000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>26365000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>24778000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>21952000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>18167000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>16611000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>14190000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>12473000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>12047000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>10913000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>10562000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>10158000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>10269000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>11701000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>12323000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>14865000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>16104000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>16503000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>17038000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>15806000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>15905000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>15559000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>16068000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>16139000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>15235000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>16104000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>16030000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>16164000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>16060000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>15633000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>15733000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>15543000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>15764000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>15360000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>154379000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>157008000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>167513000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>184706000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>188188000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>189716000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>194416000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>196856000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>202576000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>207306000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>199257000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>183882000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>174462000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>159745000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>147548000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>144473000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>148079000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>148371000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>146183000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>150109000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>132866000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>134050000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>134712000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>131361000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>136330000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>135766000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>135273000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>130799000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>127667000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>126072000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>126250000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>124110000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>118596000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>113565000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>107307000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>102630000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>101125000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>97726000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>91452000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>88549000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>-387159700.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>-744777800.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>-620186800.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>-505736000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>-616026000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>-2338900.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>20582100.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>5773700.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>179953700.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>83643700.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>32963700.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>-17472000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>-51806100.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>-116314100.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>-169087100.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>-235865100.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>-221093000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>-113800000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>-25966000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>42252200.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>190557200.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>380262200.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>671963100.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>958635200.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>1095498100.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>1119514100.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>1053174100.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>1034518800.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>1002566900.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>980144900.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>956661000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>952807000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>945502000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>919607000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>909599000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>863320800.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>805083800.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>762323800.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>702510800.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>642641100.0</v>
       </c>
     </row>
@@ -989,193 +1011,198 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>24513000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>24474000.0</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="I8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="I8" s="0" t="inlineStr">
+      <c r="J8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J8" s="0" t="inlineStr">
+      <c r="K8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="K8" s="0" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="M8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="M8" s="0" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="O8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="O8" s="0" t="inlineStr">
+      <c r="P8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P8" s="0" t="inlineStr">
+      <c r="Q8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q8" s="0" t="inlineStr">
+      <c r="R8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R8" s="0" t="inlineStr">
+      <c r="S8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="S8" s="0" t="inlineStr">
+      <c r="T8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T8" s="0" t="inlineStr">
+      <c r="U8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U8" s="0" t="inlineStr">
+      <c r="V8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="V8" s="0" t="inlineStr">
+      <c r="W8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W8" s="0" t="inlineStr">
+      <c r="X8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="X8" s="0" t="inlineStr">
+      <c r="Y8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Y8" s="0" t="inlineStr">
+      <c r="Z8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
+      <c r="AA8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AA8" s="0" t="inlineStr">
+      <c r="AB8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AB8" s="0" t="inlineStr">
+      <c r="AC8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AC8" s="0" t="inlineStr">
+      <c r="AD8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AD8" s="0" t="inlineStr">
+      <c r="AE8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AE8" s="0" t="inlineStr">
+      <c r="AF8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AF8" s="0" t="inlineStr">
+      <c r="AG8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AG8" s="0" t="inlineStr">
+      <c r="AH8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH8" s="0" t="inlineStr">
+      <c r="AI8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AI8" s="0" t="inlineStr">
+      <c r="AJ8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AJ8" s="0" t="inlineStr">
+      <c r="AK8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AK8" s="0" t="inlineStr">
+      <c r="AL8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AL8" s="0" t="inlineStr">
+      <c r="AM8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AM8" s="0" t="inlineStr">
+      <c r="AN8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AN8" s="0" t="inlineStr">
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1188,120 +1215,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>55739000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>612569000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>618015000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>585004000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>549977000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>-6067000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>-71804000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>-66741000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>-51908000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>-58088000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>-17123000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>-13630000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>-15260000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>-15441000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>-15511000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>-47110000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>-46630000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>-46327000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>-46701000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>-18709000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>-18443000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>-14155000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>-10084000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>-5472000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>22523000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>42589000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>41484000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>44378000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>171617000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>150764000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>157636000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>154388000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>2210000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>871000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>-7019000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>-10937000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>-10759000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>-13577000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>-15444000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>-13147000.0</v>
       </c>
     </row>
@@ -1312,120 +1342,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>9162000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>6969000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>7304000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>14595000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>20081000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>22682000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>25188000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>23615000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>23351000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>23212000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>24265000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>20038000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>20409000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>20465000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>19747000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>23764000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>23807000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>23444000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>22913000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>22349000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>22078000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>18957000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>15023000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>9629000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>4928000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>4053000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>4657000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>5898000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>6554000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>6015000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>6129000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>5945000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>6265000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>7500000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>8653000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>11463000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>12273000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>15365000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>17355000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>17650000.0</v>
       </c>
     </row>
@@ -1436,120 +1469,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>-403443000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>-777404000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>-636498000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>-523820000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>-646887000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>-16071000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>-51222000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>-60967000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>128046000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>25556000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>15841000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>-31102000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>-67066000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>-131755000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>-184598000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>-282975000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>-267723000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>-160127000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>-72667000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>23543000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>172114000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>366107000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>661879000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>953162900.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>1118020900.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>1162102900.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>1094657900.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>1078897000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>1174184000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>1130909000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>1114297000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>1107195000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>947712000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>920478000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>902580000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>852384000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>794325000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>748747000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>687067000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>629494000.0</v>
       </c>
     </row>
@@ -1560,120 +1596,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>-95570000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>-172359000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>-140106000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>-129964000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>-144417000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>-5926000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>-18712000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>11258000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>53824000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>24824000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>-477169000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>-500226000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>-521239000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>-539088000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>-56735000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>-103954000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>-90634000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>-56685000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>-19677000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>31254000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>67733000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>133358000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>241405000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>338550000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>402017000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>425052000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>388048000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>379039000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>415638000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>395885000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>392844000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>395933000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>337485000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>331555000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>328971000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>306867000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>288923000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>274147000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>252399000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>233049000.0</v>
       </c>
     </row>
@@ -1684,120 +1723,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>-307873000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>-605045000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>-496392000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>-393856000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>-502470000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>-10145000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>-32510000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>-72225000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>74222000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>732000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>493010000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>469124000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>454173000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>407333000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>-127863000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>-179021000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>-177089000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>-103442000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>-52990000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>-7711000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>104381000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>232749000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>420474000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>614613000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>716004000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>737051000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>706610000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>699858000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>758546000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>735024000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>721453000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>711262000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>610227000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>588923000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>573609000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>545517000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>505402000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>474600000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>434668000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>396445000.0</v>
       </c>
     </row>
@@ -1808,120 +1850,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>-297008000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>-597548000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>-497142000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>-396682000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>-505435000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>-23001000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>-33656000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>-72380000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>74295000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>1525000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>482672000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>457687000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>443896000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>406957000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>-128212000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>-178515000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>-177916000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>-107893000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>-56828000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>-10331000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>101741000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>234079000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>420427000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>613297000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>714704000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>735731000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>706563000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>699828000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>773708000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>750218000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>736639000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>734961000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>618727000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>596836000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>581045000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>544346000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>504247000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>473848000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>434186000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>395407000.0</v>
       </c>
     </row>
@@ -1931,121 +1976,126 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>-5.52</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>-4.59</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>-3.67</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>-4.66</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>-0.23</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>-0.33</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>-0.68</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>0.66</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>4.39</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>4.16</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>4.03</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>-1.2</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>-1.67</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>-1.66</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>-1.02</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>-0.54</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>-0.06</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>2.17</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>3.89</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>5.64</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>6.57</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>6.54</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>6.48</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>7.0</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>6.89</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>6.88</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>5.79</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>5.58</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>5.42</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>5.07</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>4.7</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>4.42</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>4.06</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>3.71</v>
       </c>
     </row>
@@ -2056,120 +2106,123 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>-0.0513</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>-0.0244</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>0.0639</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.1767</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.244</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>0.3081</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.3537</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.3586</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.3496</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.3361</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.3356</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.3244</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.3269</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.3127</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.3078</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.3165</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.358</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.422</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.4466</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.4526</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>0.4512</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>0.4512</v>
       </c>
       <c r="W16" s="0" t="n">
+        <v>0.4512</v>
+      </c>
+      <c r="X16" s="0" t="n">
         <v>0.4612</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>0.4666</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>0.4641</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.4618</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.4603</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.4614</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.4581</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.4531</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>0.4551</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>0.4478</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>0.4404</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.4446</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.4376</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>0.4375</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>0.4431</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>0.4368</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>0.4318</v>
       </c>
     </row>
@@ -2180,120 +2233,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>-0.3624</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>-0.5298</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>-0.3496</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>-0.2284</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>-0.2383</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>-0.0009</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.0074</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.0641</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.0314</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.0133</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>-0.0075</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>-0.0238</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>-0.0582</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>-0.0937</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>-0.147</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>-0.1502</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>-0.0756</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>-0.016</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.0229</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.089</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.1469</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.2125</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.2671</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.2824</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.288</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.2834</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.2874</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.2875</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.2856</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.2824</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.2842</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.2838</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.2818</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.2886</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.2856</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.2827</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.2843</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.2762</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.2675</v>
       </c>
     </row>
@@ -2304,120 +2360,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>-0.3777</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>-0.5531</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>-0.3588</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>-0.2365</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>-0.2502</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>-0.006</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>-0.0183</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>-0.0214</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.0456</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.0096</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.0064</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>-0.0134</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>-0.0309</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>-0.0659</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>-0.1023</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>-0.1764</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>-0.1819</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>-0.1064</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>-0.0447</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.0128</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.0804</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.1414</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.2093</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.2656</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.2882</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>0.2989</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>0.2946</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>0.2998</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.3367</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.3295</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.3289</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.3303</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.2844</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>0.282</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>0.2864</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>0.282</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>0.279</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>0.2792</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.2701</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.2621</v>
       </c>
     </row>
@@ -2428,120 +2487,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>-0.2781</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>-0.4251</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>-0.2802</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>-0.1791</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>-0.1955</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>-0.0086</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>-0.012</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>-0.0254</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.0265</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.0006</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.1941</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.197</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.2043</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.2035</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>-0.071</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>-0.1113</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>-0.1209</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>-0.0717</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>-0.035</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>-0.0056</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.0475</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.0904</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.133</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.1709</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>0.1842</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>0.1893</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>0.1901</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.1944</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.2219</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.2186</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.2175</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.2192</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.1857</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>0.1829</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>0.1844</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>0.1801</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>0.1771</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>0.1767</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.1707</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.1646</v>
       </c>
     </row>
@@ -2552,120 +2614,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.2647</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>0.2686</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>0.2315</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>0.1964</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>0.1874</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>0.1601</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.1233</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>0.073</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.0616</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>0.0545</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>0.0499</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>0.0197</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>-0.0016</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>0.0427</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>0.1263</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>0.2079</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>0.3197</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>0.2875</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>0.2689</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>0.1889</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>0.1011</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>0.058</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>0.0198</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>0.017</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>0.0559</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>0.0691</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>0.0977</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>0.0753</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>0.0638</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>0.0706</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>0.0129</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>0.0253</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>-0.0182</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>-0.0145</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>0.0348</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>0.0651</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>0.1219</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>0.1023</v>
       </c>
     </row>
@@ -2676,120 +2741,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>22189000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>246024000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>404604000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>569543000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>478318900.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>547258900.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>585116900.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>585416600.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>760721700.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>666768700.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>617832700.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>570989000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>537116000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>479707000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>417511000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>373131100.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>381607100.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>477681100.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>573789100.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>640325300.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>794882300.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>993144300.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>1280751200.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>1543451300.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>1664163200.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>1661951200.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>1577558200.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>1527226800.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>1483952900.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>1449814900.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>1412693000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>1404774000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>1374861000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>1327467000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>1297148000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>1222742800.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>1148432800.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>1090899800.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>1017978800.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>944331100.0</v>
       </c>
     </row>
@@ -2800,120 +2868,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>-387159700.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>-744777800.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>-620186800.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>-505736300.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>-616026300.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>-2339200.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>20581800.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>5773800.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>179953800.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>83643800.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>32963800.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>-17472100.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>-51806200.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>-116314200.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>-169087200.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>-235865000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>-221092900.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>-113799900.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>-25965900.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>42252200.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>190557200.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>380262200.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>671963100.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>958635100.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>1095498000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>1119514000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>1053174000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>1034518900.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>1002567000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>980145000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>956661100.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>952806900.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>945501900.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>919606900.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>909598900.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>863320900.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>805083900.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>762323900.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>702510900.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>642641100.0</v>
       </c>
     </row>
@@ -2924,120 +2995,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>-5.62</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>-4.62</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>-3.67</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>-4.66</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>-0.13</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>-0.33</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>-0.67</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>4.47</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>4.24</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>4.1</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>3.68</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>-1.2</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>-1.68</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>-1.66</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>-0.98</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>-0.07</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>2.14</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>3.85</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>5.61</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>6.53</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>6.71</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>6.44</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>6.39</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>6.96</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>6.76</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>6.65</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>6.58</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>5.64</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>5.43</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>5.27</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>4.99</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>4.62</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>4.35</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>3.99</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>3.65</v>
       </c>
     </row>
@@ -3048,122 +3122,125 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>-0.0063</v>
-      </c>
       <c r="E24" s="0" t="n">
-        <v>-0.0107</v>
+        <v>-0.0056</v>
       </c>
       <c r="F24" s="0" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>-0.11</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>-0.0121</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>-0.1</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>-0.097</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>-0.0885</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>0.0015</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>-0.0032</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>0.0044</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>-0.0057</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>-0.0457</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>-0.04</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>-0.0391</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>-0.0392</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>0.0008</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>0.1397</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>0.1399</v>
       </c>
-      <c r="AD24" s="0" t="inlineStr">
+      <c r="AE24" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>0.2105</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>0.0705</v>
-      </c>
-      <c r="AH24" s="0" t="n">
-        <v>0.07</v>
       </c>
       <c r="AI24" s="0" t="n">
         <v>0.07</v>
       </c>
       <c r="AJ24" s="0" t="n">
-        <v>0.0031</v>
+        <v>0.07</v>
       </c>
       <c r="AK24" s="0" t="n">
         <v>0.0031</v>
       </c>
       <c r="AL24" s="0" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="AM24" s="0" t="n">
         <v>0.0019</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>-0.0036</v>
       </c>
     </row>
@@ -3174,120 +3251,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>-2.7626</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>-5.5147</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>-4.5783</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>-3.6412</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>-4.6304</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>-0.1999</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>-0.3081</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>-0.6679</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>0.6722</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>0.0065</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>4.4343</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>4.2115</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>4.0842</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>3.7436</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>-1.1817</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>-1.649</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>-1.6444</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>-0.9984</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>-0.5262</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>-0.106</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>0.9343</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>2.1644</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>3.9017</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>5.6952</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>6.6292</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>6.8238</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>6.5544</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>6.5168</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>7.2395</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>7.0394</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>6.9307</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>6.9138</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>5.814</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>5.6011</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>5.4396</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>5.09</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>4.7158</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>4.4353</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>4.0715</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>3.7213</v>
       </c>
     </row>
@@ -3298,122 +3378,125 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>-0.0063</v>
-      </c>
       <c r="E26" s="0" t="n">
-        <v>-0.0107</v>
+        <v>-0.0056</v>
       </c>
       <c r="F26" s="0" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>-0.11</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>-0.0121</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>-0.1</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>-0.097</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>-0.0885</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>0.0015</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>-0.0032</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>0.0044</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>-0.0057</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>-0.0457</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>-0.04</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>-0.0391</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>-0.0393</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>0.0007</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>-0.0004</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>0.1397</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>0.1399</v>
       </c>
-      <c r="AD26" s="0" t="inlineStr">
+      <c r="AE26" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>0.2105</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>0.0705</v>
-      </c>
-      <c r="AH26" s="0" t="n">
-        <v>0.07</v>
       </c>
       <c r="AI26" s="0" t="n">
         <v>0.07</v>
       </c>
       <c r="AJ26" s="0" t="n">
-        <v>0.0032</v>
+        <v>0.07</v>
       </c>
       <c r="AK26" s="0" t="n">
         <v>0.0032</v>
       </c>
       <c r="AL26" s="0" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="AM26" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>-0.0036</v>
       </c>
     </row>
@@ -3424,120 +3507,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>-5.62</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>-4.62</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>-3.67</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>-4.66</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>-0.13</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>-0.33</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>-0.67</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>4.49</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>4.26</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>4.12</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>-1.2</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>-1.68</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>-1.66</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>-0.98</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>-0.07</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>2.16</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>3.88</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>5.66</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>6.59</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>6.78</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>6.52</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>6.48</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>7.06</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>6.86</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>6.75</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>6.67</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>5.72</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>5.51</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>5.08</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>4.7</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>4.42</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>4.06</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -3548,120 +3634,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>-307873000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>-605045000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>-496392000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>-393856000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>-502470000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>-10145000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>-32510000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>-72225000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>74222000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>732000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>493010000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>469124000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>454173000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>407333000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>-127863000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>-179021000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>-177089000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>-103442000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>-52990000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>-7711000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>104381000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>232749000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>420474000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>614613000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>716004000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>737051000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>706610000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>699858000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>758546000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>735024000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>721453000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>711262000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>610227000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>588923000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>573609000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>545517000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>505402000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>474600000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>434668000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>396445000.0</v>
       </c>
     </row>
@@ -3672,120 +3761,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>11877000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>9512000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>1895000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>-501000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>-971000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>-11865000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>-1146000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>-155000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>73000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>793000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>-10338000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>-11437000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>-10277000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>-376000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>-349000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>506000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>-827000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>-4451000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>-3838000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>-3878000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>-3898000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>72000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>-47000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>-58000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>-42000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>-62000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>-47000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>-30000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>15162000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>15194000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>15186000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>22695000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>7496000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>7439000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>7436000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>-167000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>-151000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>-278000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>-482000.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>-634000.0</v>
       </c>
     </row>
@@ -3796,120 +3888,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>-306592000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>-607060000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>-499037000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>-396894000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>-505239000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>-22877000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>-33656000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>-72380000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>74295000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>1525000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>482672000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>457687000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>443896000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>406957000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>-128212000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>-178515000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>-177916000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>-107893000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>-56828000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>-11589000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>100483000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>232821000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>420427000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>614555000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>715962000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>736989000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>706563000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>699828000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>773708000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>750218000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>736639000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>733957000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>617723000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>596362000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>581045000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>545350000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>505251000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>474322000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>434186000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>395811000.0</v>
       </c>
     </row>
@@ -3920,120 +4015,123 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>0.175</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>0.2281</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>0.2572</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>0.185</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>0.2048</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>0.2091</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>0.2057</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>0.271</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>0.2503</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>0.2484</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>0.2458</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>0.2472</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>0.2398</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>0.2313</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>0.2326</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>0.2592</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>0.3174</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>0.3533</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>0.3468</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>0.3712</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>0.3836</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>0.4051</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>0.43</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>0.4289</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>0.4275</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>0.4245</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>0.4243</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>0.4255</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>0.4224</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>0.417</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>0.419</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>0.4126</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>0.4067</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>0.4116</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>0.4045</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>0.4033</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>0.4068</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>0.4002</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>0.3931</v>
       </c>
     </row>
@@ -4044,120 +4142,123 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
+        <v>0.3417</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>0.2899</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>0.3038</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>0.2902</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>0.2628</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>0.2836</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>0.3058</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>0.2972</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>0.2705</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>0.2582</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>0.2243</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>0.2163</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>0.1973</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>0.1882</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>0.2057</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>0.2365</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>0.2801</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>0.346</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>0.4645</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>0.4834</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>0.5158</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>0.519</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>0.4518</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>0.4131</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>0.3623</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>0.3132</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>0.3038</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>0.2871</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>0.2991</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>0.2797</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>0.2944</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>0.3427</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>0.3169</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AI32" s="0" t="n">
         <v>0.3388</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AJ32" s="0" t="n">
         <v>0.3174</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AK32" s="0" t="n">
         <v>0.2958</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AL32" s="0" t="n">
         <v>0.3388</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AM32" s="0" t="n">
         <v>0.3638</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AN32" s="0" t="n">
         <v>0.3843</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>0.3437</v>
       </c>
     </row>
